--- a/dijkstra/data/railway_links_table.xlsx
+++ b/dijkstra/data/railway_links_table.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="19875" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ancha" sheetId="4" r:id="rId1"/>
@@ -363,10 +363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C99"/>
+      <selection activeCell="A2" sqref="A2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,145 +385,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C2">
-        <v>94.8</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C9">
-        <v>76</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>69</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>1027</v>
       </c>
       <c r="C13">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>1044</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,79 +539,79 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>39</v>
+        <v>1023</v>
       </c>
       <c r="C17">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>1059</v>
       </c>
       <c r="C18">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>1044</v>
       </c>
       <c r="C19">
-        <v>158</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="C20">
-        <v>172</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>1037</v>
       </c>
       <c r="C21">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>1044</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,46 +627,46 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>58.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>1059</v>
       </c>
       <c r="C25">
-        <v>69.900000000000006</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>1022</v>
       </c>
       <c r="C26">
-        <v>166</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>57</v>
+        <v>1022</v>
       </c>
       <c r="C27">
-        <v>228</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,783 +682,805 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>23</v>
+        <v>1037</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>1052</v>
       </c>
       <c r="C29">
-        <v>146</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>23</v>
+        <v>1020</v>
       </c>
       <c r="B30">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="C30">
-        <v>93.2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>1023</v>
+        <v>39</v>
       </c>
       <c r="C31">
-        <v>90</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>1022</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C34">
-        <v>55.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>1023</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>1052</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>82.6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>169</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C43">
-        <v>140</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>151</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C46">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C47">
-        <v>301</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>1044</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>1020</v>
       </c>
       <c r="C49">
-        <v>202</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>44</v>
+        <v>1023</v>
       </c>
       <c r="C50">
-        <v>208</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>1027</v>
+        <v>24</v>
       </c>
       <c r="C51">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>1044</v>
+        <v>25</v>
       </c>
       <c r="C52">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>44</v>
+        <v>1023</v>
       </c>
       <c r="C53">
-        <v>64</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C54">
-        <v>154</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C55">
-        <v>164</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C56">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C57">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C58">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B59">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B60">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C60">
-        <v>97.7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B61">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C61">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B62">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C62">
-        <v>80</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>1044</v>
+        <v>38</v>
       </c>
       <c r="C63">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>35</v>
+      </c>
+      <c r="B64">
         <v>45</v>
       </c>
-      <c r="B64">
-        <v>47</v>
-      </c>
       <c r="C64">
-        <v>175</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B65">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C65">
-        <v>280</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B66">
-        <v>1046</v>
+        <v>44</v>
       </c>
       <c r="C66">
-        <v>109</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B67">
-        <v>1037</v>
+        <v>39</v>
       </c>
       <c r="C67">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B68">
-        <v>1046</v>
+        <v>41</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B69">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C69">
-        <v>366</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B70">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C70">
-        <v>181</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B71">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C71">
-        <v>148</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B72">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C72">
-        <v>195</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B73">
-        <v>1052</v>
+        <v>45</v>
       </c>
       <c r="C73">
-        <v>101</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B74">
-        <v>1052</v>
+        <v>45</v>
       </c>
       <c r="C74">
-        <v>84.8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C75">
-        <v>150</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B76">
-        <v>59</v>
+        <v>1046</v>
       </c>
       <c r="C76">
-        <v>218</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B77">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C77">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B78">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C78">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B79">
-        <v>95</v>
+        <v>1046</v>
       </c>
       <c r="C79">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B80">
-        <v>1060</v>
+        <v>98</v>
       </c>
       <c r="C80">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B81">
         <v>1023</v>
       </c>
       <c r="C81">
-        <v>69.5</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B82">
-        <v>1059</v>
+        <v>51</v>
       </c>
       <c r="C82">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B83">
-        <v>64</v>
+        <v>1052</v>
       </c>
       <c r="C83">
-        <v>185</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>1052</v>
       </c>
       <c r="C84">
-        <v>161</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B85">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C85">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B86">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C86">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B87">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C87">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B88">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C88">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B89">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89">
-        <v>184</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B90">
-        <v>99</v>
+        <v>1023</v>
       </c>
       <c r="C90">
-        <v>440</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B91">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C91">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1020</v>
+        <v>64</v>
       </c>
       <c r="B92">
-        <v>1060</v>
+        <v>83</v>
       </c>
       <c r="C92">
-        <v>47</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1037</v>
+        <v>7</v>
       </c>
       <c r="B93">
-        <v>1052</v>
+        <v>27</v>
       </c>
       <c r="C93">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B94">
-        <v>1059</v>
+        <v>33</v>
       </c>
       <c r="C94">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B95">
-        <v>1022</v>
+        <v>92</v>
       </c>
       <c r="C95">
-        <v>64</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B96">
-        <v>1023</v>
+        <v>94</v>
       </c>
       <c r="C96">
-        <v>110</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B97">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C97">
-        <v>308</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B98">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C98">
-        <v>214</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B99">
-        <v>1023</v>
+        <v>97</v>
       </c>
       <c r="C99">
-        <v>170</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>35</v>
+      </c>
+      <c r="B100">
+        <v>44</v>
+      </c>
+      <c r="C100">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>1022</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1467,10 +1490,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C33"/>
+      <selection activeCell="A2" sqref="A2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,189 +1512,189 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>1021</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>1004</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>1021</v>
       </c>
       <c r="C5">
-        <v>340</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>1001</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>1021</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>1004</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1021</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>123</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>221</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>250</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
         <v>56</v>
       </c>
-      <c r="B13">
-        <v>1004</v>
-      </c>
       <c r="C13">
-        <v>208</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14">
-        <v>360</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C15">
-        <v>148</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B16">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C16">
-        <v>116</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17">
-        <v>260</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>1002</v>
       </c>
       <c r="C18">
-        <v>493</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,65 +1702,65 @@
         <v>66</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C19">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>182</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C21">
-        <v>298</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>75</v>
+      </c>
+      <c r="B22">
         <v>76</v>
       </c>
-      <c r="B22">
-        <v>77</v>
-      </c>
       <c r="C22">
-        <v>453</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>76</v>
+      </c>
+      <c r="B23">
         <v>77</v>
       </c>
-      <c r="B23">
-        <v>80</v>
-      </c>
       <c r="C23">
-        <v>196</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24">
-        <v>493</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,35 +1776,35 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>1001</v>
       </c>
       <c r="C26">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>1001</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B28">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,46 +1820,57 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>1002</v>
       </c>
       <c r="C30">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B31">
-        <v>1002</v>
+        <v>91</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>1079</v>
       </c>
       <c r="C33">
-        <v>169</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>79</v>
+      </c>
+      <c r="B34">
+        <v>1079</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1845,10 +1880,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <sheetPr codeName="Hoja6"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C18"/>
+      <selection activeCell="A2" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,57 +1902,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>94.8</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1003</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>1012</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1003</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>1003</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1943,13 +1979,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,21 +1993,21 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1012</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,10 +2015,10 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>1011</v>
       </c>
       <c r="C12">
-        <v>114</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +2026,10 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1011</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>199</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,54 +2037,43 @@
         <v>68</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14">
-        <v>340</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>69</v>
+      </c>
+      <c r="B15">
         <v>70</v>
       </c>
-      <c r="B15">
-        <v>71</v>
-      </c>
       <c r="C15">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
         <v>71</v>
       </c>
-      <c r="B16">
-        <v>73</v>
-      </c>
       <c r="C16">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>69</v>
-      </c>
-      <c r="B18">
-        <v>70</v>
-      </c>
-      <c r="C18">
-        <v>210</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/dijkstra/data/railway_links_table.xlsx
+++ b/dijkstra/data/railway_links_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="19875" windowHeight="7710" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="ancha" sheetId="4" r:id="rId1"/>
@@ -364,10 +364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C101"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,6 +1481,17 @@
       </c>
       <c r="C101">
         <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>29</v>
+      </c>
+      <c r="B102">
+        <v>49</v>
+      </c>
+      <c r="C102">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1894,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
